--- a/docs/画面項目定義書/インスタンスタイプダッシュボード画面.xlsx
+++ b/docs/画面項目定義書/インスタンスタイプダッシュボード画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FEC122-7C68-4D23-937A-7A514C27AA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A48F368-4CB9-40BE-932F-81ABEFC58644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="てんぷら" sheetId="1" r:id="rId1"/>
@@ -80,38 +80,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>イメージダッシュボード</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>イメージダッシュボード画面</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>イメージ追加ボタン</t>
-    <rPh sb="4" eb="6">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>イメージ追加</t>
-    <rPh sb="4" eb="6">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>イメージ追加モーダルを表示</t>
-    <rPh sb="4" eb="6">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>イメージ名</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
@@ -194,6 +162,38 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>インスタンスタイプダッシュボード画面</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>インスタンスタイプダッシュボード</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>インスタンスタイプ追加ボタン</t>
+    <rPh sb="9" eb="11">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>インスタンスタイプを追加</t>
+    <rPh sb="10" eb="12">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>インスタンスタイプ追加モーダルを表示</t>
+    <rPh sb="9" eb="11">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
@@ -621,16 +621,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1083,7 +1083,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.75" customHeight="1"/>
@@ -1135,10 +1135,10 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="13">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="39"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="10" t="s">
         <v>2</v>
       </c>
@@ -1148,10 +1148,10 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="13">
-      <c r="A6" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="40"/>
+      <c r="A6" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="42"/>
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
       <c r="E6" s="13"/>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="D10" s="31"/>
       <c r="E10" s="32" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F10" s="33"/>
       <c r="G10" s="34"/>
@@ -1227,18 +1227,18 @@
         <v>3</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C11" s="30" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="31"/>
       <c r="E11" s="32" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="34" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="13">
@@ -1246,18 +1246,18 @@
         <v>4</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D12" s="31"/>
       <c r="E12" s="32" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F12" s="33"/>
       <c r="G12" s="34" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="13">
@@ -1265,18 +1265,18 @@
         <v>5</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D13" s="31"/>
       <c r="E13" s="32" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F13" s="33"/>
       <c r="G13" s="34" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="13">
@@ -1284,18 +1284,18 @@
         <v>6</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="32" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="34" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="13">
@@ -1303,30 +1303,30 @@
         <v>7</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D15" s="31"/>
       <c r="E15" s="32" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F15" s="33"/>
       <c r="G15" s="34" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="13">
       <c r="A16" s="31">
         <v>11</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="42"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="40"/>
     </row>
     <row r="17" spans="1:7" ht="13">
       <c r="A17" s="31">
@@ -1354,34 +1354,34 @@
       <c r="A19" s="31">
         <v>14</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="42"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="40"/>
     </row>
     <row r="20" spans="1:7" ht="13">
       <c r="A20" s="31">
         <v>15</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
       <c r="G20" s="34"/>
     </row>
     <row r="21" spans="1:7" ht="13">
       <c r="A21" s="31">
         <v>13</v>
       </c>
-      <c r="B21" s="41"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="30"/>
       <c r="D21" s="31"/>
       <c r="E21" s="32"/>
       <c r="F21" s="33"/>
-      <c r="G21" s="42"/>
+      <c r="G21" s="40"/>
     </row>
     <row r="22" spans="1:7" ht="13">
       <c r="A22" s="28">

--- a/docs/画面項目定義書/インスタンスタイプダッシュボード画面.xlsx
+++ b/docs/画面項目定義書/インスタンスタイプダッシュボード画面.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A48F368-4CB9-40BE-932F-81ABEFC58644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D365DA61-6AF9-4DAA-A1B4-92F616B3BB2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="てんぷら" sheetId="1" r:id="rId1"/>
+    <sheet name="シート１" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>日本工学院</t>
   </si>
@@ -80,13 +80,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>イメージ名</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>表示</t>
     <rPh sb="0" eb="2">
       <t>ヒョウジ</t>
@@ -132,45 +125,7 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>繰り返しで表示、削除ボタンを表示</t>
-    <rPh sb="8" eb="10">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>サイズ</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>登録日</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>登録日</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ビ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>インスタンスタイプダッシュボード画面</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>インスタンスタイプダッシュボード</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
@@ -194,6 +149,52 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>vCPU</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>メモリ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ストレージ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ユーザーオブジェクトより</t>
+  </si>
+  <si>
+    <t>ユーザーオブジェクトより</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>繰り返しで表示、削除ボタン・編集ボタンを表示</t>
+    <rPh sb="8" eb="10">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>インスタンスタイプダッシュボード画面</t>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
@@ -519,7 +520,7 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -631,6 +632,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1082,8 +1089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.75" customHeight="1"/>
@@ -1091,7 +1098,7 @@
     <col min="2" max="2" width="23.7265625" customWidth="1"/>
     <col min="3" max="3" width="10.1796875" customWidth="1"/>
     <col min="4" max="4" width="13.453125" customWidth="1"/>
-    <col min="5" max="5" width="26.08984375" customWidth="1"/>
+    <col min="5" max="5" width="29.90625" customWidth="1"/>
     <col min="6" max="6" width="40.90625" customWidth="1"/>
     <col min="7" max="7" width="38.453125" customWidth="1"/>
   </cols>
@@ -1149,7 +1156,7 @@
     </row>
     <row r="6" spans="1:7" ht="13">
       <c r="A6" s="42" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B6" s="42"/>
       <c r="C6" s="11"/>
@@ -1217,7 +1224,7 @@
       </c>
       <c r="D10" s="31"/>
       <c r="E10" s="32" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F10" s="33"/>
       <c r="G10" s="34"/>
@@ -1227,18 +1234,18 @@
         <v>3</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C11" s="30" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="31"/>
       <c r="E11" s="32" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="34" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="13">
@@ -1246,18 +1253,18 @@
         <v>4</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D12" s="31"/>
       <c r="E12" s="32" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F12" s="33"/>
       <c r="G12" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="13">
@@ -1265,18 +1272,18 @@
         <v>5</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="31"/>
       <c r="E13" s="32" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F13" s="33"/>
       <c r="G13" s="34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="13">
@@ -1284,49 +1291,52 @@
         <v>6</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="32" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="13">
       <c r="A15" s="31">
         <v>7</v>
       </c>
-      <c r="B15" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="34" t="s">
-        <v>22</v>
+      <c r="B15" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="13">
       <c r="A16" s="31">
         <v>11</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="40"/>
+      <c r="B16" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="31"/>
+      <c r="E16" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="13">
       <c r="A17" s="31">
